--- a/test.xlsx
+++ b/test.xlsx
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I488"/>
+  <dimension ref="A1:I489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -402,2431 +402,2436 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>42497</v>
+        <v>42492</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>42498</v>
+        <v>42497</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>42504</v>
+        <v>42498</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>42505</v>
+        <v>42504</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>42511</v>
+        <v>42505</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>42512</v>
+        <v>42511</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>42518</v>
+        <v>42512</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>42519</v>
+        <v>42518</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>42525</v>
+        <v>42519</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>42526</v>
+        <v>42525</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>42532</v>
+        <v>42526</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>42533</v>
+        <v>42532</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>42539</v>
+        <v>42533</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>42540</v>
+        <v>42539</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1">
-        <v>42546</v>
+        <v>42540</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1">
-        <v>42547</v>
+        <v>42546</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1">
-        <v>42553</v>
+        <v>42547</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1">
-        <v>42554</v>
+        <v>42553</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1">
-        <v>42560</v>
+        <v>42554</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1">
-        <v>42561</v>
+        <v>42560</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1">
-        <v>42567</v>
+        <v>42561</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1">
-        <v>42568</v>
+        <v>42567</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1">
-        <v>42574</v>
+        <v>42568</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1">
-        <v>42575</v>
+        <v>42574</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1">
-        <v>42581</v>
+        <v>42575</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1">
-        <v>42582</v>
+        <v>42581</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1">
-        <v>42588</v>
+        <v>42582</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1">
-        <v>42589</v>
+        <v>42588</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1">
-        <v>42595</v>
+        <v>42589</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1">
-        <v>42596</v>
+        <v>42595</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1">
-        <v>42602</v>
+        <v>42596</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1">
-        <v>42603</v>
+        <v>42602</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1">
-        <v>42609</v>
+        <v>42603</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1">
-        <v>42610</v>
+        <v>42609</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1">
-        <v>42616</v>
+        <v>42610</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1">
-        <v>42617</v>
+        <v>42616</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1">
-        <v>42623</v>
+        <v>42617</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1">
-        <v>42624</v>
+        <v>42623</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1">
-        <v>42630</v>
+        <v>42624</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1">
-        <v>42631</v>
+        <v>42630</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1">
-        <v>42637</v>
+        <v>42631</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1">
-        <v>42638</v>
+        <v>42637</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1">
-        <v>42644</v>
+        <v>42638</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1">
-        <v>42645</v>
+        <v>42644</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1">
-        <v>42651</v>
+        <v>42645</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1">
-        <v>42652</v>
+        <v>42651</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1">
-        <v>42658</v>
+        <v>42652</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1">
-        <v>42659</v>
+        <v>42658</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1">
-        <v>42665</v>
+        <v>42659</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1">
-        <v>42666</v>
+        <v>42665</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1">
-        <v>42672</v>
+        <v>42666</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1">
-        <v>42673</v>
+        <v>42672</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1">
-        <v>42679</v>
+        <v>42673</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1">
-        <v>42680</v>
+        <v>42679</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1">
-        <v>42686</v>
+        <v>42680</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1">
-        <v>42687</v>
+        <v>42686</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1">
-        <v>42693</v>
+        <v>42687</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1">
-        <v>42694</v>
+        <v>42693</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1">
-        <v>42700</v>
+        <v>42694</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1">
-        <v>42701</v>
+        <v>42700</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1">
-        <v>42707</v>
+        <v>42701</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1">
-        <v>42708</v>
+        <v>42707</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1">
-        <v>42714</v>
+        <v>42708</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1">
-        <v>42715</v>
+        <v>42714</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1">
-        <v>42721</v>
+        <v>42715</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1">
-        <v>42722</v>
+        <v>42721</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1">
-        <v>42728</v>
+        <v>42722</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1">
-        <v>42729</v>
+        <v>42728</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1">
-        <v>42735</v>
+        <v>42729</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1">
-        <v>42736</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1">
-        <v>42742</v>
+        <v>42736</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1">
-        <v>42743</v>
+        <v>42742</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1">
-        <v>42749</v>
+        <v>42743</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1">
-        <v>42750</v>
+        <v>42749</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1">
-        <v>42756</v>
+        <v>42750</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1">
-        <v>42757</v>
+        <v>42756</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1">
-        <v>42763</v>
+        <v>42757</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1">
-        <v>42764</v>
+        <v>42763</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1">
-        <v>42770</v>
+        <v>42764</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1">
-        <v>42771</v>
+        <v>42770</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1">
-        <v>42777</v>
+        <v>42771</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1">
-        <v>42778</v>
+        <v>42777</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1">
-        <v>42784</v>
+        <v>42778</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1">
-        <v>42785</v>
+        <v>42784</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1">
-        <v>42791</v>
+        <v>42785</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1">
-        <v>42792</v>
+        <v>42791</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1">
-        <v>42798</v>
+        <v>42792</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1">
-        <v>42799</v>
+        <v>42798</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1">
-        <v>42805</v>
+        <v>42799</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1">
-        <v>42806</v>
+        <v>42805</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1">
-        <v>42812</v>
+        <v>42806</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1">
-        <v>42813</v>
+        <v>42812</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1">
-        <v>42819</v>
+        <v>42813</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1">
-        <v>42820</v>
+        <v>42819</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1">
-        <v>42826</v>
+        <v>42820</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1">
-        <v>42827</v>
+        <v>42826</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1">
-        <v>42833</v>
+        <v>42827</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1">
-        <v>42834</v>
+        <v>42833</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1">
-        <v>42840</v>
+        <v>42834</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1">
-        <v>42841</v>
+        <v>42840</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1">
-        <v>42847</v>
+        <v>42841</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1">
-        <v>42848</v>
+        <v>42847</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1">
-        <v>42854</v>
+        <v>42848</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1">
-        <v>42855</v>
+        <v>42854</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1">
-        <v>42861</v>
+        <v>42855</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1">
-        <v>42862</v>
+        <v>42861</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1">
-        <v>42868</v>
+        <v>42862</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1">
-        <v>42869</v>
+        <v>42868</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1">
-        <v>42875</v>
+        <v>42869</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1">
-        <v>42876</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1">
-        <v>42882</v>
+        <v>42876</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1">
-        <v>42883</v>
+        <v>42882</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1">
-        <v>42889</v>
+        <v>42883</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1">
-        <v>42890</v>
+        <v>42889</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1">
-        <v>42896</v>
+        <v>42890</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1">
-        <v>42897</v>
+        <v>42896</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1">
-        <v>42903</v>
+        <v>42897</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1">
-        <v>42904</v>
+        <v>42903</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1">
-        <v>42910</v>
+        <v>42904</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1">
-        <v>42911</v>
+        <v>42910</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1">
-        <v>42917</v>
+        <v>42911</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1">
-        <v>42918</v>
+        <v>42917</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1">
-        <v>42924</v>
+        <v>42918</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1">
-        <v>42925</v>
+        <v>42924</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1">
-        <v>42931</v>
+        <v>42925</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1">
-        <v>42932</v>
+        <v>42931</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1">
-        <v>42938</v>
+        <v>42932</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1">
-        <v>42939</v>
+        <v>42938</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1">
-        <v>42945</v>
+        <v>42939</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1">
-        <v>42946</v>
+        <v>42945</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1">
-        <v>42952</v>
+        <v>42946</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1">
-        <v>42953</v>
+        <v>42952</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1">
-        <v>42959</v>
+        <v>42953</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1">
-        <v>42960</v>
+        <v>42959</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1">
-        <v>42966</v>
+        <v>42960</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1">
-        <v>42967</v>
+        <v>42966</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1">
-        <v>42973</v>
+        <v>42967</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1">
-        <v>42974</v>
+        <v>42973</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1">
-        <v>42980</v>
+        <v>42974</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1">
-        <v>42981</v>
+        <v>42980</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1">
-        <v>42987</v>
+        <v>42981</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1">
-        <v>42988</v>
+        <v>42987</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1">
-        <v>42994</v>
+        <v>42988</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1">
-        <v>42995</v>
+        <v>42994</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1">
-        <v>43001</v>
+        <v>42995</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1">
-        <v>43002</v>
+        <v>43001</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1">
-        <v>43008</v>
+        <v>43002</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1">
-        <v>43009</v>
+        <v>43008</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1">
-        <v>43015</v>
+        <v>43009</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1">
-        <v>43016</v>
+        <v>43015</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1">
-        <v>43022</v>
+        <v>43016</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1">
-        <v>43023</v>
+        <v>43022</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1">
-        <v>43029</v>
+        <v>43023</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1">
-        <v>43030</v>
+        <v>43029</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1">
-        <v>43036</v>
+        <v>43030</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1">
-        <v>43037</v>
+        <v>43036</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1">
-        <v>43043</v>
+        <v>43037</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1">
-        <v>43044</v>
+        <v>43043</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1">
-        <v>43050</v>
+        <v>43044</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1">
-        <v>43051</v>
+        <v>43050</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1">
-        <v>43057</v>
+        <v>43051</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1">
-        <v>43058</v>
+        <v>43057</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1">
-        <v>43064</v>
+        <v>43058</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1">
-        <v>43065</v>
+        <v>43064</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1">
-        <v>43071</v>
+        <v>43065</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1">
-        <v>43072</v>
+        <v>43071</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1">
-        <v>43078</v>
+        <v>43072</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1">
-        <v>43079</v>
+        <v>43078</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1">
-        <v>43085</v>
+        <v>43079</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1">
-        <v>43086</v>
+        <v>43085</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1">
-        <v>43092</v>
+        <v>43086</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1">
-        <v>43093</v>
+        <v>43092</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1">
-        <v>43099</v>
+        <v>43093</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1">
-        <v>43100</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1">
-        <v>43106</v>
+        <v>43100</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1">
-        <v>43107</v>
+        <v>43106</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1">
-        <v>43113</v>
+        <v>43107</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1">
-        <v>43114</v>
+        <v>43113</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="1">
-        <v>43120</v>
+        <v>43114</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1">
-        <v>43121</v>
+        <v>43120</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="1">
-        <v>43127</v>
+        <v>43121</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1">
-        <v>43128</v>
+        <v>43127</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1">
-        <v>43134</v>
+        <v>43128</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1">
-        <v>43135</v>
+        <v>43134</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1">
-        <v>43141</v>
+        <v>43135</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1">
-        <v>43142</v>
+        <v>43141</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1">
-        <v>43148</v>
+        <v>43142</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1">
-        <v>43149</v>
+        <v>43148</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1">
-        <v>43155</v>
+        <v>43149</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1">
-        <v>43156</v>
+        <v>43155</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1">
-        <v>43162</v>
+        <v>43156</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1">
-        <v>43163</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1">
-        <v>43169</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1">
-        <v>43170</v>
+        <v>43169</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="1">
-        <v>43176</v>
+        <v>43170</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1">
-        <v>43177</v>
+        <v>43176</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1">
-        <v>43183</v>
+        <v>43177</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1">
-        <v>43184</v>
+        <v>43183</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1">
-        <v>43190</v>
+        <v>43184</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1">
-        <v>43191</v>
+        <v>43190</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1">
-        <v>43197</v>
+        <v>43191</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1">
-        <v>43198</v>
+        <v>43197</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1">
-        <v>43204</v>
+        <v>43198</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1">
-        <v>43205</v>
+        <v>43204</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1">
-        <v>43211</v>
+        <v>43205</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1">
-        <v>43212</v>
+        <v>43211</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1">
-        <v>43218</v>
+        <v>43212</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1">
-        <v>43219</v>
+        <v>43218</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1">
-        <v>43225</v>
+        <v>43219</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1">
-        <v>43226</v>
+        <v>43225</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1">
-        <v>43232</v>
+        <v>43226</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1">
-        <v>43233</v>
+        <v>43232</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1">
-        <v>43239</v>
+        <v>43233</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1">
-        <v>43240</v>
+        <v>43239</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1">
-        <v>43246</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1">
-        <v>43247</v>
+        <v>43246</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1">
-        <v>43253</v>
+        <v>43247</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1">
-        <v>43254</v>
+        <v>43253</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1">
-        <v>43260</v>
+        <v>43254</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1">
-        <v>43261</v>
+        <v>43260</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1">
-        <v>43267</v>
+        <v>43261</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1">
-        <v>43268</v>
+        <v>43267</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1">
-        <v>43274</v>
+        <v>43268</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1">
-        <v>43275</v>
+        <v>43274</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1">
-        <v>43281</v>
+        <v>43275</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1">
-        <v>43282</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1">
-        <v>43288</v>
+        <v>43282</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1">
-        <v>43289</v>
+        <v>43288</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1">
-        <v>43295</v>
+        <v>43289</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1">
-        <v>43296</v>
+        <v>43295</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1">
-        <v>43302</v>
+        <v>43296</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1">
-        <v>43303</v>
+        <v>43302</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1">
-        <v>43309</v>
+        <v>43303</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1">
-        <v>43310</v>
+        <v>43309</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1">
-        <v>43316</v>
+        <v>43310</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1">
-        <v>43317</v>
+        <v>43316</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1">
-        <v>43323</v>
+        <v>43317</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1">
-        <v>43324</v>
+        <v>43323</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1">
-        <v>43330</v>
+        <v>43324</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1">
-        <v>43331</v>
+        <v>43330</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1">
-        <v>43337</v>
+        <v>43331</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1">
-        <v>43338</v>
+        <v>43337</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1">
-        <v>43344</v>
+        <v>43338</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1">
-        <v>43345</v>
+        <v>43344</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="1">
-        <v>43351</v>
+        <v>43345</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1">
-        <v>43352</v>
+        <v>43351</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="1">
-        <v>43358</v>
+        <v>43352</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1">
-        <v>43359</v>
+        <v>43358</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1">
-        <v>43365</v>
+        <v>43359</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1">
-        <v>43366</v>
+        <v>43365</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1">
-        <v>43372</v>
+        <v>43366</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1">
-        <v>43373</v>
+        <v>43372</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="1">
-        <v>43379</v>
+        <v>43373</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1">
-        <v>43380</v>
+        <v>43379</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="1">
-        <v>43386</v>
+        <v>43380</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1">
-        <v>43387</v>
+        <v>43386</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1">
-        <v>43393</v>
+        <v>43387</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1">
-        <v>43394</v>
+        <v>43393</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="1">
-        <v>43400</v>
+        <v>43394</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1">
-        <v>43401</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1">
-        <v>43407</v>
+        <v>43401</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1">
-        <v>43408</v>
+        <v>43407</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="1">
-        <v>43414</v>
+        <v>43408</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1">
-        <v>43415</v>
+        <v>43414</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="1">
-        <v>43421</v>
+        <v>43415</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1">
-        <v>43422</v>
+        <v>43421</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1">
-        <v>43428</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1">
-        <v>43429</v>
+        <v>43428</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1">
-        <v>43435</v>
+        <v>43429</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1">
-        <v>43436</v>
+        <v>43435</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="1">
-        <v>43442</v>
+        <v>43436</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1">
-        <v>43443</v>
+        <v>43442</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="1">
-        <v>43449</v>
+        <v>43443</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="1">
-        <v>43450</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="1">
-        <v>43456</v>
+        <v>43450</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="1">
-        <v>43457</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="1">
-        <v>43463</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1">
-        <v>43464</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="1">
-        <v>43470</v>
+        <v>43464</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1">
-        <v>43471</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1">
-        <v>43477</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1">
-        <v>43478</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="1">
-        <v>43484</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1">
-        <v>43485</v>
+        <v>43484</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="1">
-        <v>43491</v>
+        <v>43485</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1">
-        <v>43492</v>
+        <v>43491</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="1">
-        <v>43498</v>
+        <v>43492</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1">
-        <v>43499</v>
+        <v>43498</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="1">
-        <v>43505</v>
+        <v>43499</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1">
-        <v>43506</v>
+        <v>43505</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="1">
-        <v>43512</v>
+        <v>43506</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1">
-        <v>43513</v>
+        <v>43512</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="1">
-        <v>43519</v>
+        <v>43513</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="1">
-        <v>43520</v>
+        <v>43519</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="1">
-        <v>43526</v>
+        <v>43520</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="1">
-        <v>43527</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="1">
-        <v>43533</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="1">
-        <v>43534</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="1">
-        <v>43540</v>
+        <v>43534</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="1">
-        <v>43541</v>
+        <v>43540</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="1">
-        <v>43547</v>
+        <v>43541</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="1">
-        <v>43548</v>
+        <v>43547</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="1">
-        <v>43554</v>
+        <v>43548</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="1">
-        <v>43555</v>
+        <v>43554</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="1">
-        <v>43561</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="1">
-        <v>43562</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="1">
-        <v>43568</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="1">
-        <v>43569</v>
+        <v>43568</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="1">
-        <v>43575</v>
+        <v>43569</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="1">
-        <v>43576</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="1">
-        <v>43582</v>
+        <v>43576</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="1">
-        <v>43583</v>
+        <v>43582</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="1">
-        <v>43589</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="1">
-        <v>43590</v>
+        <v>43589</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="1">
-        <v>43596</v>
+        <v>43590</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="1">
-        <v>43597</v>
+        <v>43596</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="1">
-        <v>43603</v>
+        <v>43597</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="1">
-        <v>43604</v>
+        <v>43603</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="1">
-        <v>43610</v>
+        <v>43604</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="1">
-        <v>43611</v>
+        <v>43610</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="1">
-        <v>43617</v>
+        <v>43611</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="1">
-        <v>43618</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="1">
-        <v>43624</v>
+        <v>43618</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="1">
-        <v>43625</v>
+        <v>43624</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="1">
-        <v>43631</v>
+        <v>43625</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="1">
-        <v>43632</v>
+        <v>43631</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="1">
-        <v>43638</v>
+        <v>43632</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="1">
-        <v>43639</v>
+        <v>43638</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="1">
-        <v>43645</v>
+        <v>43639</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="1">
-        <v>43646</v>
+        <v>43645</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="1">
-        <v>43652</v>
+        <v>43646</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="1">
-        <v>43653</v>
+        <v>43652</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="1">
-        <v>43659</v>
+        <v>43653</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="1">
-        <v>43660</v>
+        <v>43659</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="1">
-        <v>43666</v>
+        <v>43660</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="1">
-        <v>43667</v>
+        <v>43666</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="1">
-        <v>43673</v>
+        <v>43667</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="1">
-        <v>43674</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="1">
-        <v>43680</v>
+        <v>43674</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="1">
-        <v>43681</v>
+        <v>43680</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="1">
-        <v>43687</v>
+        <v>43681</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="1">
-        <v>43688</v>
+        <v>43687</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="1">
-        <v>43694</v>
+        <v>43688</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="1">
-        <v>43695</v>
+        <v>43694</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="1">
-        <v>43701</v>
+        <v>43695</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="1">
-        <v>43702</v>
+        <v>43701</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="1">
-        <v>43708</v>
+        <v>43702</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="1">
-        <v>43709</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="1">
-        <v>43715</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="1">
-        <v>43716</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="1">
-        <v>43722</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1">
-        <v>43723</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="1">
-        <v>43729</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="1">
-        <v>43730</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="1">
-        <v>43736</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="1">
-        <v>43737</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="1">
-        <v>43743</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="1">
-        <v>43744</v>
+        <v>43743</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="1">
-        <v>43750</v>
+        <v>43744</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="1">
-        <v>43751</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="1">
-        <v>43757</v>
+        <v>43751</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="1">
-        <v>43758</v>
+        <v>43757</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="1">
-        <v>43764</v>
+        <v>43758</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1">
-        <v>43765</v>
+        <v>43764</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="1">
-        <v>43771</v>
+        <v>43765</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="1">
-        <v>43772</v>
+        <v>43771</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="1">
-        <v>43778</v>
+        <v>43772</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="1">
-        <v>43779</v>
+        <v>43778</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="1">
-        <v>43785</v>
+        <v>43779</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="1">
-        <v>43786</v>
+        <v>43785</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="1">
-        <v>43792</v>
+        <v>43786</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="1">
-        <v>43793</v>
+        <v>43792</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="1">
-        <v>43799</v>
+        <v>43793</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="1">
-        <v>43800</v>
+        <v>43799</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="1">
-        <v>43806</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="1">
-        <v>43807</v>
+        <v>43806</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="1">
-        <v>43813</v>
+        <v>43807</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="1">
-        <v>43814</v>
+        <v>43813</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="1">
-        <v>43820</v>
+        <v>43814</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="1">
-        <v>43821</v>
+        <v>43820</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="1">
-        <v>43827</v>
+        <v>43821</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="1">
-        <v>43828</v>
+        <v>43827</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="1">
-        <v>43834</v>
+        <v>43828</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1">
-        <v>43835</v>
+        <v>43834</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="1">
-        <v>43841</v>
+        <v>43835</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="1">
-        <v>43842</v>
+        <v>43841</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="1">
-        <v>43848</v>
+        <v>43842</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="1">
-        <v>43849</v>
+        <v>43848</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="1">
-        <v>43855</v>
+        <v>43849</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="1">
-        <v>43856</v>
+        <v>43855</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="1">
-        <v>43862</v>
+        <v>43856</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="1">
-        <v>43869</v>
+        <v>43863</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="1">
-        <v>43870</v>
+        <v>43869</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="1">
-        <v>43876</v>
+        <v>43870</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="1">
-        <v>43877</v>
+        <v>43876</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="1">
-        <v>43883</v>
+        <v>43877</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="1">
-        <v>43884</v>
+        <v>43883</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="1">
-        <v>43890</v>
+        <v>43884</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="1">
-        <v>43891</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="1">
-        <v>43897</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="1">
-        <v>43898</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="1">
-        <v>43904</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="1">
-        <v>43911</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="1">
-        <v>43918</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="1">
-        <v>43925</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="1">
-        <v>43932</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="1">
-        <v>43939</v>
+        <v>43933</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="1">
-        <v>43946</v>
+        <v>43940</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="1">
-        <v>43953</v>
+        <v>43947</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="1">
-        <v>43960</v>
+        <v>43954</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="1">
-        <v>43967</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="1">
-        <v>43974</v>
+        <v>43968</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="1">
-        <v>43981</v>
+        <v>43975</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="1">
-        <v>43988</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="1">
-        <v>43995</v>
+        <v>43989</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="1">
-        <v>44002</v>
+        <v>43996</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="1">
-        <v>44009</v>
+        <v>44003</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="1">
-        <v>44016</v>
+        <v>44010</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="1">
-        <v>44023</v>
+        <v>44017</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="1">
-        <v>44030</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" s="1">
-        <v>44037</v>
+        <v>44031</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="1">
-        <v>44044</v>
+        <v>44038</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="1">
-        <v>44051</v>
+        <v>44045</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="1">
-        <v>44058</v>
+        <v>44052</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="1">
-        <v>44065</v>
+        <v>44059</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="1">
-        <v>44072</v>
+        <v>44066</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="1">
-        <v>44079</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="1">
-        <v>44086</v>
+        <v>44080</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="1">
-        <v>44093</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="1">
-        <v>44100</v>
+        <v>44094</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="1">
-        <v>44107</v>
+        <v>44101</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="1">
-        <v>44114</v>
+        <v>44108</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="1">
-        <v>44121</v>
+        <v>44115</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="1">
-        <v>44128</v>
+        <v>44122</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="1">
-        <v>44135</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="1">
-        <v>44142</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="1">
-        <v>44149</v>
+        <v>44143</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="1">
-        <v>44156</v>
+        <v>44150</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="1">
-        <v>44163</v>
+        <v>44157</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="1">
-        <v>44170</v>
+        <v>44164</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="1">
-        <v>44177</v>
+        <v>44171</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="1">
-        <v>44184</v>
+        <v>44178</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="1">
-        <v>44191</v>
+        <v>44185</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="1">
+        <v>44191</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="1">
         <v>44192</v>
       </c>
     </row>
